--- a/cheminTpsGrs.xlsx
+++ b/cheminTpsGrs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6710E8-55C6-406D-ACB8-2A92A00C45FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7780703E-AE0A-45B8-BBAD-BE2B3DD9C3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{703ECD5B-C393-4742-A69B-1044F944D443}"/>
   </bookViews>
@@ -410,7 +410,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,7 +431,7 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -445,7 +445,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
